--- a/ref/scTypeDB.xlsx
+++ b/ref/scTypeDB.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="585">
   <si>
     <t xml:space="preserve">tissueType</t>
   </si>
@@ -1693,13 +1693,13 @@
     <t xml:space="preserve">Prolif CD4+ T</t>
   </si>
   <si>
-    <t xml:space="preserve">PTPRC,CD8A,CD8B,CD45RA,CCR7,SELL,LEF1,TRAC,TRBC1,TRBC2,TCF7,CD3D,CD3E,CD3G,IL7R</t>
+    <t xml:space="preserve">PTPRC,CD8A,CD8B,CD45RA,CCR7,SELL,LEF1,TRAC,TRBC1,TRBC2,TCF7,CD3D,CD3E,CD3G,IL7R,KLF2,FOXP1,FOXO1</t>
   </si>
   <si>
     <t xml:space="preserve">GZMB,CD56,NCAM1,CD4</t>
   </si>
   <si>
-    <t xml:space="preserve">PTPRC,TRAC,TRBC1,TRBC2,CD4,CCR7,CD45RA,SELL,LEF1,TCF7,CD3D,CD3E,CD3G,IL73</t>
+    <t xml:space="preserve">PTPRC,TRAC,TRBC1,TRBC2,CD4,CCR7,CD45RA,SELL,LEF1,TCF7,CD3D,CD3E,CD3G,IL73,KLF2,ACTN1</t>
   </si>
   <si>
     <t xml:space="preserve">GZMB,CD56,NCAM1,CD8A,CD8B</t>
@@ -1717,16 +1717,25 @@
     <t xml:space="preserve">CCR7,SELL,CD8A,CD8B</t>
   </si>
   <si>
-    <t xml:space="preserve">PTPRC,TRAC,TRBC1,TRBC2,CD8A,CD8B,GZMK,GZMB,GNLY,IFNG,CD3D,CD3E,CD3G</t>
+    <t xml:space="preserve">PTPRC,TRAC,TRBC1,TRBC2,CD8A,CD8B,GZMK,GZMB,GNLY,IFNG,CD3D,CD3E,CD3G,FAS,JUN,JUNB,JUND,NKG7</t>
   </si>
   <si>
     <t xml:space="preserve">SELL,CCR7,CD27,CD4</t>
   </si>
   <si>
-    <t xml:space="preserve">PTPRC,TRAC,TRBC1,TRBC2,CD4,GZMK,GZMB,GNLY,IFNG,CD3D,CD3E,CD3G</t>
+    <t xml:space="preserve">PTPRC,TRAC,TRBC1,TRBC2,CD4,GZMK,GZMB,GNLY,IFNG,CD3D,CD3E,CD3G,FOS,NKG7,FAS,JUNB,JUN,JUND</t>
   </si>
   <si>
     <t xml:space="preserve">SELL,CCR7,CD27,CD8A,CD8B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exhausted CD8+ T cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTPRC,TRAC,TRBC1,TRBC2,CD8A,CD8B,PDCD1,HAVCR2,LAG3,TIGIT,TOX,ENTPD1,LAYN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTPRC,TRAC,TRBC1,TRBC2,CD4,TOX,PDCD1,HAVCR2,TIGIT,CTLA4,BTLA</t>
   </si>
   <si>
     <t xml:space="preserve">γδ- T cells</t>
@@ -1776,7 +1785,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1816,6 +1825,16 @@
       <name val="Helvetica Neue"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1873,7 +1892,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1910,6 +1929,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1929,8 +1956,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C241" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C260" activeCellId="0" sqref="C260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5718,48 +5745,44 @@
       <c r="B261" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="C261" s="8" t="s">
+      <c r="C261" s="9" t="s">
         <v>570</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="E261" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="E261" s="3"/>
     </row>
     <row r="262" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="B262" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="C262" s="8" t="s">
-        <v>573</v>
+      <c r="B262" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>571</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E262" s="3" t="s">
-        <v>575</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="E262" s="3"/>
     </row>
     <row r="263" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="3" t="s">
         <v>538</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>47</v>
+        <v>572</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="D263" s="4" t="s">
-        <v>577</v>
+        <v>573</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>574</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5767,16 +5790,16 @@
         <v>538</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>50</v>
+        <v>575</v>
       </c>
       <c r="C264" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E264" s="3" t="s">
         <v>578</v>
-      </c>
-      <c r="D264" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="E264" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5784,16 +5807,16 @@
         <v>538</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C265" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="D265" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="D265" s="3" t="s">
-        <v>581</v>
-      </c>
       <c r="E265" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5801,16 +5824,16 @@
         <v>538</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>68</v>
+        <v>50</v>
+      </c>
+      <c r="C266" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>582</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5818,16 +5841,16 @@
         <v>538</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>71</v>
+        <v>53</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>583</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>72</v>
+        <v>584</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5835,16 +5858,16 @@
         <v>538</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5852,16 +5875,16 @@
         <v>538</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D269" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5869,14 +5892,16 @@
         <v>538</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D270" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E270" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5884,14 +5909,16 @@
         <v>538</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D271" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E271" s="3" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5899,18 +5926,46 @@
         <v>538</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D272" s="4"/>
       <c r="E272" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A273" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D273" s="4"/>
+      <c r="E273" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A274" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D274" s="4"/>
+      <c r="E274" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/ref/scTypeDB.xlsx
+++ b/ref/scTypeDB.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="596">
   <si>
     <t xml:space="preserve">tissueType</t>
   </si>
@@ -1735,9 +1735,18 @@
     <t xml:space="preserve">PTPRC,TRAC,TRBC1,TRBC2,CD8A,CD8B,PDCD1,HAVCR2,LAG3,TIGIT,TOX,ENTPD1,LAYN</t>
   </si>
   <si>
+    <t xml:space="preserve">Exh CD8+ T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exhausted CD4+ T cells</t>
+  </si>
+  <si>
     <t xml:space="preserve">PTPRC,TRAC,TRBC1,TRBC2,CD4,TOX,PDCD1,HAVCR2,TIGIT,CTLA4,BTLA</t>
   </si>
   <si>
+    <t xml:space="preserve">Exh CD4+ T</t>
+  </si>
+  <si>
     <t xml:space="preserve">γδ- T cells</t>
   </si>
   <si>
@@ -1769,6 +1778,30 @@
   </si>
   <si>
     <t xml:space="preserve">CCR7,CD27,CD8A,CD8B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulatory CD8+ T cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTPRC,TRAC,TRBC1,TRBC2,CD8A,CD8B,PRDM1,MAF,CTLA4,TIGIT,PDCD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4,GZMB,PRF1,GNLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8+ Treg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulatory CD4+ T cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTPRC,TRAC,TRBC1,TRBC2,CD4,IL2RA,CCR4,ICOS,CTLA4,TIGIT,PDCD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8A,CD8B,GZMB,PRF1,GNLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4+ Treg</t>
   </si>
   <si>
     <t xml:space="preserve">CD56,CD16,GZMB,KLRD1,CD94,KLRF1,FCGR3A,CD16</t>
@@ -1785,7 +1818,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1828,11 +1861,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Calibri"/>
       <family val="0"/>
     </font>
@@ -1892,7 +1920,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1929,12 +1957,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1954,10 +1978,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C241" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C260" activeCellId="0" sqref="C260"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D246" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E268" activeCellId="0" sqref="E268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5745,41 +5769,45 @@
       <c r="B261" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="C261" s="9" t="s">
+      <c r="C261" s="5" t="s">
         <v>570</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E261" s="3"/>
+      <c r="E261" s="3" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="262" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="B262" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C262" s="9" t="s">
-        <v>571</v>
+      <c r="B262" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>573</v>
       </c>
       <c r="D262" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="E262" s="3"/>
+      <c r="E262" s="3" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="263" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="3" t="s">
         <v>538</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E263" s="3" t="s">
         <v>44</v>
@@ -5790,16 +5818,16 @@
         <v>538</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5810,10 +5838,10 @@
         <v>47</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="E265" s="3" t="s">
         <v>49</v>
@@ -5827,10 +5855,10 @@
         <v>50</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="E266" s="3" t="s">
         <v>52</v>
@@ -5840,34 +5868,1053 @@
       <c r="A267" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="B267" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C267" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="D267" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="E267" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B267" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="D267" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="E267" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="F267" s="0"/>
+      <c r="G267" s="0"/>
+      <c r="H267" s="0"/>
+      <c r="I267" s="0"/>
+      <c r="J267" s="0"/>
+      <c r="K267" s="0"/>
+      <c r="L267" s="0"/>
+      <c r="M267" s="0"/>
+      <c r="N267" s="0"/>
+      <c r="O267" s="0"/>
+      <c r="P267" s="0"/>
+      <c r="Q267" s="0"/>
+      <c r="R267" s="0"/>
+      <c r="S267" s="0"/>
+      <c r="T267" s="0"/>
+      <c r="U267" s="0"/>
+      <c r="V267" s="0"/>
+      <c r="W267" s="0"/>
+      <c r="X267" s="0"/>
+      <c r="Y267" s="0"/>
+      <c r="Z267" s="0"/>
+      <c r="AA267" s="0"/>
+      <c r="AB267" s="0"/>
+      <c r="AC267" s="0"/>
+      <c r="AD267" s="0"/>
+      <c r="AE267" s="0"/>
+      <c r="AF267" s="0"/>
+      <c r="AG267" s="0"/>
+      <c r="AH267" s="0"/>
+      <c r="AI267" s="0"/>
+      <c r="AJ267" s="0"/>
+      <c r="AK267" s="0"/>
+      <c r="AL267" s="0"/>
+      <c r="AM267" s="0"/>
+      <c r="AN267" s="0"/>
+      <c r="AO267" s="0"/>
+      <c r="AP267" s="0"/>
+      <c r="AQ267" s="0"/>
+      <c r="AR267" s="0"/>
+      <c r="AS267" s="0"/>
+      <c r="AT267" s="0"/>
+      <c r="AU267" s="0"/>
+      <c r="AV267" s="0"/>
+      <c r="AW267" s="0"/>
+      <c r="AX267" s="0"/>
+      <c r="AY267" s="0"/>
+      <c r="AZ267" s="0"/>
+      <c r="BA267" s="0"/>
+      <c r="BB267" s="0"/>
+      <c r="BC267" s="0"/>
+      <c r="BD267" s="0"/>
+      <c r="BE267" s="0"/>
+      <c r="BF267" s="0"/>
+      <c r="BG267" s="0"/>
+      <c r="BH267" s="0"/>
+      <c r="BI267" s="0"/>
+      <c r="BJ267" s="0"/>
+      <c r="BK267" s="0"/>
+      <c r="BL267" s="0"/>
+      <c r="BM267" s="0"/>
+      <c r="BN267" s="0"/>
+      <c r="BO267" s="0"/>
+      <c r="BP267" s="0"/>
+      <c r="BQ267" s="0"/>
+      <c r="BR267" s="0"/>
+      <c r="BS267" s="0"/>
+      <c r="BT267" s="0"/>
+      <c r="BU267" s="0"/>
+      <c r="BV267" s="0"/>
+      <c r="BW267" s="0"/>
+      <c r="BX267" s="0"/>
+      <c r="BY267" s="0"/>
+      <c r="BZ267" s="0"/>
+      <c r="CA267" s="0"/>
+      <c r="CB267" s="0"/>
+      <c r="CC267" s="0"/>
+      <c r="CD267" s="0"/>
+      <c r="CE267" s="0"/>
+      <c r="CF267" s="0"/>
+      <c r="CG267" s="0"/>
+      <c r="CH267" s="0"/>
+      <c r="CI267" s="0"/>
+      <c r="CJ267" s="0"/>
+      <c r="CK267" s="0"/>
+      <c r="CL267" s="0"/>
+      <c r="CM267" s="0"/>
+      <c r="CN267" s="0"/>
+      <c r="CO267" s="0"/>
+      <c r="CP267" s="0"/>
+      <c r="CQ267" s="0"/>
+      <c r="CR267" s="0"/>
+      <c r="CS267" s="0"/>
+      <c r="CT267" s="0"/>
+      <c r="CU267" s="0"/>
+      <c r="CV267" s="0"/>
+      <c r="CW267" s="0"/>
+      <c r="CX267" s="0"/>
+      <c r="CY267" s="0"/>
+      <c r="CZ267" s="0"/>
+      <c r="DA267" s="0"/>
+      <c r="DB267" s="0"/>
+      <c r="DC267" s="0"/>
+      <c r="DD267" s="0"/>
+      <c r="DE267" s="0"/>
+      <c r="DF267" s="0"/>
+      <c r="DG267" s="0"/>
+      <c r="DH267" s="0"/>
+      <c r="DI267" s="0"/>
+      <c r="DJ267" s="0"/>
+      <c r="DK267" s="0"/>
+      <c r="DL267" s="0"/>
+      <c r="DM267" s="0"/>
+      <c r="DN267" s="0"/>
+      <c r="DO267" s="0"/>
+      <c r="DP267" s="0"/>
+      <c r="DQ267" s="0"/>
+      <c r="DR267" s="0"/>
+      <c r="DS267" s="0"/>
+      <c r="DT267" s="0"/>
+      <c r="DU267" s="0"/>
+      <c r="DV267" s="0"/>
+      <c r="DW267" s="0"/>
+      <c r="DX267" s="0"/>
+      <c r="DY267" s="0"/>
+      <c r="DZ267" s="0"/>
+      <c r="EA267" s="0"/>
+      <c r="EB267" s="0"/>
+      <c r="EC267" s="0"/>
+      <c r="ED267" s="0"/>
+      <c r="EE267" s="0"/>
+      <c r="EF267" s="0"/>
+      <c r="EG267" s="0"/>
+      <c r="EH267" s="0"/>
+      <c r="EI267" s="0"/>
+      <c r="EJ267" s="0"/>
+      <c r="EK267" s="0"/>
+      <c r="EL267" s="0"/>
+      <c r="EM267" s="0"/>
+      <c r="EN267" s="0"/>
+      <c r="EO267" s="0"/>
+      <c r="EP267" s="0"/>
+      <c r="EQ267" s="0"/>
+      <c r="ER267" s="0"/>
+      <c r="ES267" s="0"/>
+      <c r="ET267" s="0"/>
+      <c r="EU267" s="0"/>
+      <c r="EV267" s="0"/>
+      <c r="EW267" s="0"/>
+      <c r="EX267" s="0"/>
+      <c r="EY267" s="0"/>
+      <c r="EZ267" s="0"/>
+      <c r="FA267" s="0"/>
+      <c r="FB267" s="0"/>
+      <c r="FC267" s="0"/>
+      <c r="FD267" s="0"/>
+      <c r="FE267" s="0"/>
+      <c r="FF267" s="0"/>
+      <c r="FG267" s="0"/>
+      <c r="FH267" s="0"/>
+      <c r="FI267" s="0"/>
+      <c r="FJ267" s="0"/>
+      <c r="FK267" s="0"/>
+      <c r="FL267" s="0"/>
+      <c r="FM267" s="0"/>
+      <c r="FN267" s="0"/>
+      <c r="FO267" s="0"/>
+      <c r="FP267" s="0"/>
+      <c r="FQ267" s="0"/>
+      <c r="FR267" s="0"/>
+      <c r="FS267" s="0"/>
+      <c r="FT267" s="0"/>
+      <c r="FU267" s="0"/>
+      <c r="FV267" s="0"/>
+      <c r="FW267" s="0"/>
+      <c r="FX267" s="0"/>
+      <c r="FY267" s="0"/>
+      <c r="FZ267" s="0"/>
+      <c r="GA267" s="0"/>
+      <c r="GB267" s="0"/>
+      <c r="GC267" s="0"/>
+      <c r="GD267" s="0"/>
+      <c r="GE267" s="0"/>
+      <c r="GF267" s="0"/>
+      <c r="GG267" s="0"/>
+      <c r="GH267" s="0"/>
+      <c r="GI267" s="0"/>
+      <c r="GJ267" s="0"/>
+      <c r="GK267" s="0"/>
+      <c r="GL267" s="0"/>
+      <c r="GM267" s="0"/>
+      <c r="GN267" s="0"/>
+      <c r="GO267" s="0"/>
+      <c r="GP267" s="0"/>
+      <c r="GQ267" s="0"/>
+      <c r="GR267" s="0"/>
+      <c r="GS267" s="0"/>
+      <c r="GT267" s="0"/>
+      <c r="GU267" s="0"/>
+      <c r="GV267" s="0"/>
+      <c r="GW267" s="0"/>
+      <c r="GX267" s="0"/>
+      <c r="GY267" s="0"/>
+      <c r="GZ267" s="0"/>
+      <c r="HA267" s="0"/>
+      <c r="HB267" s="0"/>
+      <c r="HC267" s="0"/>
+      <c r="HD267" s="0"/>
+      <c r="HE267" s="0"/>
+      <c r="HF267" s="0"/>
+      <c r="HG267" s="0"/>
+      <c r="HH267" s="0"/>
+      <c r="HI267" s="0"/>
+      <c r="HJ267" s="0"/>
+      <c r="HK267" s="0"/>
+      <c r="HL267" s="0"/>
+      <c r="HM267" s="0"/>
+      <c r="HN267" s="0"/>
+      <c r="HO267" s="0"/>
+      <c r="HP267" s="0"/>
+      <c r="HQ267" s="0"/>
+      <c r="HR267" s="0"/>
+      <c r="HS267" s="0"/>
+      <c r="HT267" s="0"/>
+      <c r="HU267" s="0"/>
+      <c r="HV267" s="0"/>
+      <c r="HW267" s="0"/>
+      <c r="HX267" s="0"/>
+      <c r="HY267" s="0"/>
+      <c r="HZ267" s="0"/>
+      <c r="IA267" s="0"/>
+      <c r="IB267" s="0"/>
+      <c r="IC267" s="0"/>
+      <c r="ID267" s="0"/>
+      <c r="IE267" s="0"/>
+      <c r="IF267" s="0"/>
+      <c r="IG267" s="0"/>
+      <c r="IH267" s="0"/>
+      <c r="II267" s="0"/>
+      <c r="IJ267" s="0"/>
+      <c r="IK267" s="0"/>
+      <c r="IL267" s="0"/>
+      <c r="IM267" s="0"/>
+      <c r="IN267" s="0"/>
+      <c r="IO267" s="0"/>
+      <c r="IP267" s="0"/>
+      <c r="IQ267" s="0"/>
+      <c r="IR267" s="0"/>
+      <c r="IS267" s="0"/>
+      <c r="IT267" s="0"/>
+      <c r="IU267" s="0"/>
+      <c r="IV267" s="0"/>
+      <c r="IW267" s="0"/>
+      <c r="IX267" s="0"/>
+      <c r="IY267" s="0"/>
+      <c r="IZ267" s="0"/>
+      <c r="JA267" s="0"/>
+      <c r="JB267" s="0"/>
+      <c r="JC267" s="0"/>
+      <c r="JD267" s="0"/>
+      <c r="JE267" s="0"/>
+      <c r="JF267" s="0"/>
+      <c r="JG267" s="0"/>
+      <c r="JH267" s="0"/>
+      <c r="JI267" s="0"/>
+      <c r="JJ267" s="0"/>
+      <c r="JK267" s="0"/>
+      <c r="JL267" s="0"/>
+      <c r="JM267" s="0"/>
+      <c r="JN267" s="0"/>
+      <c r="JO267" s="0"/>
+      <c r="JP267" s="0"/>
+      <c r="JQ267" s="0"/>
+      <c r="JR267" s="0"/>
+      <c r="JS267" s="0"/>
+      <c r="JT267" s="0"/>
+      <c r="JU267" s="0"/>
+      <c r="JV267" s="0"/>
+      <c r="JW267" s="0"/>
+      <c r="JX267" s="0"/>
+      <c r="JY267" s="0"/>
+      <c r="JZ267" s="0"/>
+      <c r="KA267" s="0"/>
+      <c r="KB267" s="0"/>
+      <c r="KC267" s="0"/>
+      <c r="KD267" s="0"/>
+      <c r="KE267" s="0"/>
+      <c r="KF267" s="0"/>
+      <c r="KG267" s="0"/>
+      <c r="KH267" s="0"/>
+      <c r="KI267" s="0"/>
+      <c r="KJ267" s="0"/>
+      <c r="KK267" s="0"/>
+      <c r="KL267" s="0"/>
+      <c r="KM267" s="0"/>
+      <c r="KN267" s="0"/>
+      <c r="KO267" s="0"/>
+      <c r="KP267" s="0"/>
+      <c r="KQ267" s="0"/>
+      <c r="KR267" s="0"/>
+      <c r="KS267" s="0"/>
+      <c r="KT267" s="0"/>
+      <c r="KU267" s="0"/>
+      <c r="KV267" s="0"/>
+      <c r="KW267" s="0"/>
+      <c r="KX267" s="0"/>
+      <c r="KY267" s="0"/>
+      <c r="KZ267" s="0"/>
+      <c r="LA267" s="0"/>
+      <c r="LB267" s="0"/>
+      <c r="LC267" s="0"/>
+      <c r="LD267" s="0"/>
+      <c r="LE267" s="0"/>
+      <c r="LF267" s="0"/>
+      <c r="LG267" s="0"/>
+      <c r="LH267" s="0"/>
+      <c r="LI267" s="0"/>
+      <c r="LJ267" s="0"/>
+      <c r="LK267" s="0"/>
+      <c r="LL267" s="0"/>
+      <c r="LM267" s="0"/>
+      <c r="LN267" s="0"/>
+      <c r="LO267" s="0"/>
+      <c r="LP267" s="0"/>
+      <c r="LQ267" s="0"/>
+      <c r="LR267" s="0"/>
+      <c r="LS267" s="0"/>
+      <c r="LT267" s="0"/>
+      <c r="LU267" s="0"/>
+      <c r="LV267" s="0"/>
+      <c r="LW267" s="0"/>
+      <c r="LX267" s="0"/>
+      <c r="LY267" s="0"/>
+      <c r="LZ267" s="0"/>
+      <c r="MA267" s="0"/>
+      <c r="MB267" s="0"/>
+      <c r="MC267" s="0"/>
+      <c r="MD267" s="0"/>
+      <c r="ME267" s="0"/>
+      <c r="MF267" s="0"/>
+      <c r="MG267" s="0"/>
+      <c r="MH267" s="0"/>
+      <c r="MI267" s="0"/>
+      <c r="MJ267" s="0"/>
+      <c r="MK267" s="0"/>
+      <c r="ML267" s="0"/>
+      <c r="MM267" s="0"/>
+      <c r="MN267" s="0"/>
+      <c r="MO267" s="0"/>
+      <c r="MP267" s="0"/>
+      <c r="MQ267" s="0"/>
+      <c r="MR267" s="0"/>
+      <c r="MS267" s="0"/>
+      <c r="MT267" s="0"/>
+      <c r="MU267" s="0"/>
+      <c r="MV267" s="0"/>
+      <c r="MW267" s="0"/>
+      <c r="MX267" s="0"/>
+      <c r="MY267" s="0"/>
+      <c r="MZ267" s="0"/>
+      <c r="NA267" s="0"/>
+      <c r="NB267" s="0"/>
+      <c r="NC267" s="0"/>
+      <c r="ND267" s="0"/>
+      <c r="NE267" s="0"/>
+      <c r="NF267" s="0"/>
+      <c r="NG267" s="0"/>
+      <c r="NH267" s="0"/>
+      <c r="NI267" s="0"/>
+      <c r="NJ267" s="0"/>
+      <c r="NK267" s="0"/>
+      <c r="NL267" s="0"/>
+      <c r="NM267" s="0"/>
+      <c r="NN267" s="0"/>
+      <c r="NO267" s="0"/>
+      <c r="NP267" s="0"/>
+      <c r="NQ267" s="0"/>
+      <c r="NR267" s="0"/>
+      <c r="NS267" s="0"/>
+      <c r="NT267" s="0"/>
+      <c r="NU267" s="0"/>
+      <c r="NV267" s="0"/>
+      <c r="NW267" s="0"/>
+      <c r="NX267" s="0"/>
+      <c r="NY267" s="0"/>
+      <c r="NZ267" s="0"/>
+      <c r="OA267" s="0"/>
+      <c r="OB267" s="0"/>
+      <c r="OC267" s="0"/>
+      <c r="OD267" s="0"/>
+      <c r="OE267" s="0"/>
+      <c r="OF267" s="0"/>
+      <c r="OG267" s="0"/>
+      <c r="OH267" s="0"/>
+      <c r="OI267" s="0"/>
+      <c r="OJ267" s="0"/>
+      <c r="OK267" s="0"/>
+      <c r="OL267" s="0"/>
+      <c r="OM267" s="0"/>
+      <c r="ON267" s="0"/>
+      <c r="OO267" s="0"/>
+      <c r="OP267" s="0"/>
+      <c r="OQ267" s="0"/>
+      <c r="OR267" s="0"/>
+      <c r="OS267" s="0"/>
+      <c r="OT267" s="0"/>
+      <c r="OU267" s="0"/>
+      <c r="OV267" s="0"/>
+      <c r="OW267" s="0"/>
+      <c r="OX267" s="0"/>
+      <c r="OY267" s="0"/>
+      <c r="OZ267" s="0"/>
+      <c r="PA267" s="0"/>
+      <c r="PB267" s="0"/>
+      <c r="PC267" s="0"/>
+      <c r="PD267" s="0"/>
+      <c r="PE267" s="0"/>
+      <c r="PF267" s="0"/>
+      <c r="PG267" s="0"/>
+      <c r="PH267" s="0"/>
+      <c r="PI267" s="0"/>
+      <c r="PJ267" s="0"/>
+      <c r="PK267" s="0"/>
+      <c r="PL267" s="0"/>
+      <c r="PM267" s="0"/>
+      <c r="PN267" s="0"/>
+      <c r="PO267" s="0"/>
+      <c r="PP267" s="0"/>
+      <c r="PQ267" s="0"/>
+      <c r="PR267" s="0"/>
+      <c r="PS267" s="0"/>
+      <c r="PT267" s="0"/>
+      <c r="PU267" s="0"/>
+      <c r="PV267" s="0"/>
+      <c r="PW267" s="0"/>
+      <c r="PX267" s="0"/>
+      <c r="PY267" s="0"/>
+      <c r="PZ267" s="0"/>
+      <c r="QA267" s="0"/>
+      <c r="QB267" s="0"/>
+      <c r="QC267" s="0"/>
+      <c r="QD267" s="0"/>
+      <c r="QE267" s="0"/>
+      <c r="QF267" s="0"/>
+      <c r="QG267" s="0"/>
+      <c r="QH267" s="0"/>
+      <c r="QI267" s="0"/>
+      <c r="QJ267" s="0"/>
+      <c r="QK267" s="0"/>
+      <c r="QL267" s="0"/>
+      <c r="QM267" s="0"/>
+      <c r="QN267" s="0"/>
+      <c r="QO267" s="0"/>
+      <c r="QP267" s="0"/>
+      <c r="QQ267" s="0"/>
+      <c r="QR267" s="0"/>
+      <c r="QS267" s="0"/>
+      <c r="QT267" s="0"/>
+      <c r="QU267" s="0"/>
+      <c r="QV267" s="0"/>
+      <c r="QW267" s="0"/>
+      <c r="QX267" s="0"/>
+      <c r="QY267" s="0"/>
+      <c r="QZ267" s="0"/>
+      <c r="RA267" s="0"/>
+      <c r="RB267" s="0"/>
+      <c r="RC267" s="0"/>
+      <c r="RD267" s="0"/>
+      <c r="RE267" s="0"/>
+      <c r="RF267" s="0"/>
+      <c r="RG267" s="0"/>
+      <c r="RH267" s="0"/>
+      <c r="RI267" s="0"/>
+      <c r="RJ267" s="0"/>
+      <c r="RK267" s="0"/>
+      <c r="RL267" s="0"/>
+      <c r="RM267" s="0"/>
+      <c r="RN267" s="0"/>
+      <c r="RO267" s="0"/>
+      <c r="RP267" s="0"/>
+      <c r="RQ267" s="0"/>
+      <c r="RR267" s="0"/>
+      <c r="RS267" s="0"/>
+      <c r="RT267" s="0"/>
+      <c r="RU267" s="0"/>
+      <c r="RV267" s="0"/>
+      <c r="RW267" s="0"/>
+      <c r="RX267" s="0"/>
+      <c r="RY267" s="0"/>
+      <c r="RZ267" s="0"/>
+      <c r="SA267" s="0"/>
+      <c r="SB267" s="0"/>
+      <c r="SC267" s="0"/>
+      <c r="SD267" s="0"/>
+      <c r="SE267" s="0"/>
+      <c r="SF267" s="0"/>
+      <c r="SG267" s="0"/>
+      <c r="SH267" s="0"/>
+      <c r="SI267" s="0"/>
+      <c r="SJ267" s="0"/>
+      <c r="SK267" s="0"/>
+      <c r="SL267" s="0"/>
+      <c r="SM267" s="0"/>
+      <c r="SN267" s="0"/>
+      <c r="SO267" s="0"/>
+      <c r="SP267" s="0"/>
+      <c r="SQ267" s="0"/>
+      <c r="SR267" s="0"/>
+      <c r="SS267" s="0"/>
+      <c r="ST267" s="0"/>
+      <c r="SU267" s="0"/>
+      <c r="SV267" s="0"/>
+      <c r="SW267" s="0"/>
+      <c r="SX267" s="0"/>
+      <c r="SY267" s="0"/>
+      <c r="SZ267" s="0"/>
+      <c r="TA267" s="0"/>
+      <c r="TB267" s="0"/>
+      <c r="TC267" s="0"/>
+      <c r="TD267" s="0"/>
+      <c r="TE267" s="0"/>
+      <c r="TF267" s="0"/>
+      <c r="TG267" s="0"/>
+      <c r="TH267" s="0"/>
+      <c r="TI267" s="0"/>
+      <c r="TJ267" s="0"/>
+      <c r="TK267" s="0"/>
+      <c r="TL267" s="0"/>
+      <c r="TM267" s="0"/>
+      <c r="TN267" s="0"/>
+      <c r="TO267" s="0"/>
+      <c r="TP267" s="0"/>
+      <c r="TQ267" s="0"/>
+      <c r="TR267" s="0"/>
+      <c r="TS267" s="0"/>
+      <c r="TT267" s="0"/>
+      <c r="TU267" s="0"/>
+      <c r="TV267" s="0"/>
+      <c r="TW267" s="0"/>
+      <c r="TX267" s="0"/>
+      <c r="TY267" s="0"/>
+      <c r="TZ267" s="0"/>
+      <c r="UA267" s="0"/>
+      <c r="UB267" s="0"/>
+      <c r="UC267" s="0"/>
+      <c r="UD267" s="0"/>
+      <c r="UE267" s="0"/>
+      <c r="UF267" s="0"/>
+      <c r="UG267" s="0"/>
+      <c r="UH267" s="0"/>
+      <c r="UI267" s="0"/>
+      <c r="UJ267" s="0"/>
+      <c r="UK267" s="0"/>
+      <c r="UL267" s="0"/>
+      <c r="UM267" s="0"/>
+      <c r="UN267" s="0"/>
+      <c r="UO267" s="0"/>
+      <c r="UP267" s="0"/>
+      <c r="UQ267" s="0"/>
+      <c r="UR267" s="0"/>
+      <c r="US267" s="0"/>
+      <c r="UT267" s="0"/>
+      <c r="UU267" s="0"/>
+      <c r="UV267" s="0"/>
+      <c r="UW267" s="0"/>
+      <c r="UX267" s="0"/>
+      <c r="UY267" s="0"/>
+      <c r="UZ267" s="0"/>
+      <c r="VA267" s="0"/>
+      <c r="VB267" s="0"/>
+      <c r="VC267" s="0"/>
+      <c r="VD267" s="0"/>
+      <c r="VE267" s="0"/>
+      <c r="VF267" s="0"/>
+      <c r="VG267" s="0"/>
+      <c r="VH267" s="0"/>
+      <c r="VI267" s="0"/>
+      <c r="VJ267" s="0"/>
+      <c r="VK267" s="0"/>
+      <c r="VL267" s="0"/>
+      <c r="VM267" s="0"/>
+      <c r="VN267" s="0"/>
+      <c r="VO267" s="0"/>
+      <c r="VP267" s="0"/>
+      <c r="VQ267" s="0"/>
+      <c r="VR267" s="0"/>
+      <c r="VS267" s="0"/>
+      <c r="VT267" s="0"/>
+      <c r="VU267" s="0"/>
+      <c r="VV267" s="0"/>
+      <c r="VW267" s="0"/>
+      <c r="VX267" s="0"/>
+      <c r="VY267" s="0"/>
+      <c r="VZ267" s="0"/>
+      <c r="WA267" s="0"/>
+      <c r="WB267" s="0"/>
+      <c r="WC267" s="0"/>
+      <c r="WD267" s="0"/>
+      <c r="WE267" s="0"/>
+      <c r="WF267" s="0"/>
+      <c r="WG267" s="0"/>
+      <c r="WH267" s="0"/>
+      <c r="WI267" s="0"/>
+      <c r="WJ267" s="0"/>
+      <c r="WK267" s="0"/>
+      <c r="WL267" s="0"/>
+      <c r="WM267" s="0"/>
+      <c r="WN267" s="0"/>
+      <c r="WO267" s="0"/>
+      <c r="WP267" s="0"/>
+      <c r="WQ267" s="0"/>
+      <c r="WR267" s="0"/>
+      <c r="WS267" s="0"/>
+      <c r="WT267" s="0"/>
+      <c r="WU267" s="0"/>
+      <c r="WV267" s="0"/>
+      <c r="WW267" s="0"/>
+      <c r="WX267" s="0"/>
+      <c r="WY267" s="0"/>
+      <c r="WZ267" s="0"/>
+      <c r="XA267" s="0"/>
+      <c r="XB267" s="0"/>
+      <c r="XC267" s="0"/>
+      <c r="XD267" s="0"/>
+      <c r="XE267" s="0"/>
+      <c r="XF267" s="0"/>
+      <c r="XG267" s="0"/>
+      <c r="XH267" s="0"/>
+      <c r="XI267" s="0"/>
+      <c r="XJ267" s="0"/>
+      <c r="XK267" s="0"/>
+      <c r="XL267" s="0"/>
+      <c r="XM267" s="0"/>
+      <c r="XN267" s="0"/>
+      <c r="XO267" s="0"/>
+      <c r="XP267" s="0"/>
+      <c r="XQ267" s="0"/>
+      <c r="XR267" s="0"/>
+      <c r="XS267" s="0"/>
+      <c r="XT267" s="0"/>
+      <c r="XU267" s="0"/>
+      <c r="XV267" s="0"/>
+      <c r="XW267" s="0"/>
+      <c r="XX267" s="0"/>
+      <c r="XY267" s="0"/>
+      <c r="XZ267" s="0"/>
+      <c r="YA267" s="0"/>
+      <c r="YB267" s="0"/>
+      <c r="YC267" s="0"/>
+      <c r="YD267" s="0"/>
+      <c r="YE267" s="0"/>
+      <c r="YF267" s="0"/>
+      <c r="YG267" s="0"/>
+      <c r="YH267" s="0"/>
+      <c r="YI267" s="0"/>
+      <c r="YJ267" s="0"/>
+      <c r="YK267" s="0"/>
+      <c r="YL267" s="0"/>
+      <c r="YM267" s="0"/>
+      <c r="YN267" s="0"/>
+      <c r="YO267" s="0"/>
+      <c r="YP267" s="0"/>
+      <c r="YQ267" s="0"/>
+      <c r="YR267" s="0"/>
+      <c r="YS267" s="0"/>
+      <c r="YT267" s="0"/>
+      <c r="YU267" s="0"/>
+      <c r="YV267" s="0"/>
+      <c r="YW267" s="0"/>
+      <c r="YX267" s="0"/>
+      <c r="YY267" s="0"/>
+      <c r="YZ267" s="0"/>
+      <c r="ZA267" s="0"/>
+      <c r="ZB267" s="0"/>
+      <c r="ZC267" s="0"/>
+      <c r="ZD267" s="0"/>
+      <c r="ZE267" s="0"/>
+      <c r="ZF267" s="0"/>
+      <c r="ZG267" s="0"/>
+      <c r="ZH267" s="0"/>
+      <c r="ZI267" s="0"/>
+      <c r="ZJ267" s="0"/>
+      <c r="ZK267" s="0"/>
+      <c r="ZL267" s="0"/>
+      <c r="ZM267" s="0"/>
+      <c r="ZN267" s="0"/>
+      <c r="ZO267" s="0"/>
+      <c r="ZP267" s="0"/>
+      <c r="ZQ267" s="0"/>
+      <c r="ZR267" s="0"/>
+      <c r="ZS267" s="0"/>
+      <c r="ZT267" s="0"/>
+      <c r="ZU267" s="0"/>
+      <c r="ZV267" s="0"/>
+      <c r="ZW267" s="0"/>
+      <c r="ZX267" s="0"/>
+      <c r="ZY267" s="0"/>
+      <c r="ZZ267" s="0"/>
+      <c r="AAA267" s="0"/>
+      <c r="AAB267" s="0"/>
+      <c r="AAC267" s="0"/>
+      <c r="AAD267" s="0"/>
+      <c r="AAE267" s="0"/>
+      <c r="AAF267" s="0"/>
+      <c r="AAG267" s="0"/>
+      <c r="AAH267" s="0"/>
+      <c r="AAI267" s="0"/>
+      <c r="AAJ267" s="0"/>
+      <c r="AAK267" s="0"/>
+      <c r="AAL267" s="0"/>
+      <c r="AAM267" s="0"/>
+      <c r="AAN267" s="0"/>
+      <c r="AAO267" s="0"/>
+      <c r="AAP267" s="0"/>
+      <c r="AAQ267" s="0"/>
+      <c r="AAR267" s="0"/>
+      <c r="AAS267" s="0"/>
+      <c r="AAT267" s="0"/>
+      <c r="AAU267" s="0"/>
+      <c r="AAV267" s="0"/>
+      <c r="AAW267" s="0"/>
+      <c r="AAX267" s="0"/>
+      <c r="AAY267" s="0"/>
+      <c r="AAZ267" s="0"/>
+      <c r="ABA267" s="0"/>
+      <c r="ABB267" s="0"/>
+      <c r="ABC267" s="0"/>
+      <c r="ABD267" s="0"/>
+      <c r="ABE267" s="0"/>
+      <c r="ABF267" s="0"/>
+      <c r="ABG267" s="0"/>
+      <c r="ABH267" s="0"/>
+      <c r="ABI267" s="0"/>
+      <c r="ABJ267" s="0"/>
+      <c r="ABK267" s="0"/>
+      <c r="ABL267" s="0"/>
+      <c r="ABM267" s="0"/>
+      <c r="ABN267" s="0"/>
+      <c r="ABO267" s="0"/>
+      <c r="ABP267" s="0"/>
+      <c r="ABQ267" s="0"/>
+      <c r="ABR267" s="0"/>
+      <c r="ABS267" s="0"/>
+      <c r="ABT267" s="0"/>
+      <c r="ABU267" s="0"/>
+      <c r="ABV267" s="0"/>
+      <c r="ABW267" s="0"/>
+      <c r="ABX267" s="0"/>
+      <c r="ABY267" s="0"/>
+      <c r="ABZ267" s="0"/>
+      <c r="ACA267" s="0"/>
+      <c r="ACB267" s="0"/>
+      <c r="ACC267" s="0"/>
+      <c r="ACD267" s="0"/>
+      <c r="ACE267" s="0"/>
+      <c r="ACF267" s="0"/>
+      <c r="ACG267" s="0"/>
+      <c r="ACH267" s="0"/>
+      <c r="ACI267" s="0"/>
+      <c r="ACJ267" s="0"/>
+      <c r="ACK267" s="0"/>
+      <c r="ACL267" s="0"/>
+      <c r="ACM267" s="0"/>
+      <c r="ACN267" s="0"/>
+      <c r="ACO267" s="0"/>
+      <c r="ACP267" s="0"/>
+      <c r="ACQ267" s="0"/>
+      <c r="ACR267" s="0"/>
+      <c r="ACS267" s="0"/>
+      <c r="ACT267" s="0"/>
+      <c r="ACU267" s="0"/>
+      <c r="ACV267" s="0"/>
+      <c r="ACW267" s="0"/>
+      <c r="ACX267" s="0"/>
+      <c r="ACY267" s="0"/>
+      <c r="ACZ267" s="0"/>
+      <c r="ADA267" s="0"/>
+      <c r="ADB267" s="0"/>
+      <c r="ADC267" s="0"/>
+      <c r="ADD267" s="0"/>
+      <c r="ADE267" s="0"/>
+      <c r="ADF267" s="0"/>
+      <c r="ADG267" s="0"/>
+      <c r="ADH267" s="0"/>
+      <c r="ADI267" s="0"/>
+      <c r="ADJ267" s="0"/>
+      <c r="ADK267" s="0"/>
+      <c r="ADL267" s="0"/>
+      <c r="ADM267" s="0"/>
+      <c r="ADN267" s="0"/>
+      <c r="ADO267" s="0"/>
+      <c r="ADP267" s="0"/>
+      <c r="ADQ267" s="0"/>
+      <c r="ADR267" s="0"/>
+      <c r="ADS267" s="0"/>
+      <c r="ADT267" s="0"/>
+      <c r="ADU267" s="0"/>
+      <c r="ADV267" s="0"/>
+      <c r="ADW267" s="0"/>
+      <c r="ADX267" s="0"/>
+      <c r="ADY267" s="0"/>
+      <c r="ADZ267" s="0"/>
+      <c r="AEA267" s="0"/>
+      <c r="AEB267" s="0"/>
+      <c r="AEC267" s="0"/>
+      <c r="AED267" s="0"/>
+      <c r="AEE267" s="0"/>
+      <c r="AEF267" s="0"/>
+      <c r="AEG267" s="0"/>
+      <c r="AEH267" s="0"/>
+      <c r="AEI267" s="0"/>
+      <c r="AEJ267" s="0"/>
+      <c r="AEK267" s="0"/>
+      <c r="AEL267" s="0"/>
+      <c r="AEM267" s="0"/>
+      <c r="AEN267" s="0"/>
+      <c r="AEO267" s="0"/>
+      <c r="AEP267" s="0"/>
+      <c r="AEQ267" s="0"/>
+      <c r="AER267" s="0"/>
+      <c r="AES267" s="0"/>
+      <c r="AET267" s="0"/>
+      <c r="AEU267" s="0"/>
+      <c r="AEV267" s="0"/>
+      <c r="AEW267" s="0"/>
+      <c r="AEX267" s="0"/>
+      <c r="AEY267" s="0"/>
+      <c r="AEZ267" s="0"/>
+      <c r="AFA267" s="0"/>
+      <c r="AFB267" s="0"/>
+      <c r="AFC267" s="0"/>
+      <c r="AFD267" s="0"/>
+      <c r="AFE267" s="0"/>
+      <c r="AFF267" s="0"/>
+      <c r="AFG267" s="0"/>
+      <c r="AFH267" s="0"/>
+      <c r="AFI267" s="0"/>
+      <c r="AFJ267" s="0"/>
+      <c r="AFK267" s="0"/>
+      <c r="AFL267" s="0"/>
+      <c r="AFM267" s="0"/>
+      <c r="AFN267" s="0"/>
+      <c r="AFO267" s="0"/>
+      <c r="AFP267" s="0"/>
+      <c r="AFQ267" s="0"/>
+      <c r="AFR267" s="0"/>
+      <c r="AFS267" s="0"/>
+      <c r="AFT267" s="0"/>
+      <c r="AFU267" s="0"/>
+      <c r="AFV267" s="0"/>
+      <c r="AFW267" s="0"/>
+      <c r="AFX267" s="0"/>
+      <c r="AFY267" s="0"/>
+      <c r="AFZ267" s="0"/>
+      <c r="AGA267" s="0"/>
+      <c r="AGB267" s="0"/>
+      <c r="AGC267" s="0"/>
+      <c r="AGD267" s="0"/>
+      <c r="AGE267" s="0"/>
+      <c r="AGF267" s="0"/>
+      <c r="AGG267" s="0"/>
+      <c r="AGH267" s="0"/>
+      <c r="AGI267" s="0"/>
+      <c r="AGJ267" s="0"/>
+      <c r="AGK267" s="0"/>
+      <c r="AGL267" s="0"/>
+      <c r="AGM267" s="0"/>
+      <c r="AGN267" s="0"/>
+      <c r="AGO267" s="0"/>
+      <c r="AGP267" s="0"/>
+      <c r="AGQ267" s="0"/>
+      <c r="AGR267" s="0"/>
+      <c r="AGS267" s="0"/>
+      <c r="AGT267" s="0"/>
+      <c r="AGU267" s="0"/>
+      <c r="AGV267" s="0"/>
+      <c r="AGW267" s="0"/>
+      <c r="AGX267" s="0"/>
+      <c r="AGY267" s="0"/>
+      <c r="AGZ267" s="0"/>
+      <c r="AHA267" s="0"/>
+      <c r="AHB267" s="0"/>
+      <c r="AHC267" s="0"/>
+      <c r="AHD267" s="0"/>
+      <c r="AHE267" s="0"/>
+      <c r="AHF267" s="0"/>
+      <c r="AHG267" s="0"/>
+      <c r="AHH267" s="0"/>
+      <c r="AHI267" s="0"/>
+      <c r="AHJ267" s="0"/>
+      <c r="AHK267" s="0"/>
+      <c r="AHL267" s="0"/>
+      <c r="AHM267" s="0"/>
+      <c r="AHN267" s="0"/>
+      <c r="AHO267" s="0"/>
+      <c r="AHP267" s="0"/>
+      <c r="AHQ267" s="0"/>
+      <c r="AHR267" s="0"/>
+      <c r="AHS267" s="0"/>
+      <c r="AHT267" s="0"/>
+      <c r="AHU267" s="0"/>
+      <c r="AHV267" s="0"/>
+      <c r="AHW267" s="0"/>
+      <c r="AHX267" s="0"/>
+      <c r="AHY267" s="0"/>
+      <c r="AHZ267" s="0"/>
+      <c r="AIA267" s="0"/>
+      <c r="AIB267" s="0"/>
+      <c r="AIC267" s="0"/>
+      <c r="AID267" s="0"/>
+      <c r="AIE267" s="0"/>
+      <c r="AIF267" s="0"/>
+      <c r="AIG267" s="0"/>
+      <c r="AIH267" s="0"/>
+      <c r="AII267" s="0"/>
+      <c r="AIJ267" s="0"/>
+      <c r="AIK267" s="0"/>
+      <c r="AIL267" s="0"/>
+      <c r="AIM267" s="0"/>
+      <c r="AIN267" s="0"/>
+      <c r="AIO267" s="0"/>
+      <c r="AIP267" s="0"/>
+      <c r="AIQ267" s="0"/>
+      <c r="AIR267" s="0"/>
+      <c r="AIS267" s="0"/>
+      <c r="AIT267" s="0"/>
+      <c r="AIU267" s="0"/>
+      <c r="AIV267" s="0"/>
+      <c r="AIW267" s="0"/>
+      <c r="AIX267" s="0"/>
+      <c r="AIY267" s="0"/>
+      <c r="AIZ267" s="0"/>
+      <c r="AJA267" s="0"/>
+      <c r="AJB267" s="0"/>
+      <c r="AJC267" s="0"/>
+      <c r="AJD267" s="0"/>
+      <c r="AJE267" s="0"/>
+      <c r="AJF267" s="0"/>
+      <c r="AJG267" s="0"/>
+      <c r="AJH267" s="0"/>
+      <c r="AJI267" s="0"/>
+      <c r="AJJ267" s="0"/>
+      <c r="AJK267" s="0"/>
+      <c r="AJL267" s="0"/>
+      <c r="AJM267" s="0"/>
+      <c r="AJN267" s="0"/>
+      <c r="AJO267" s="0"/>
+      <c r="AJP267" s="0"/>
+      <c r="AJQ267" s="0"/>
+      <c r="AJR267" s="0"/>
+      <c r="AJS267" s="0"/>
+      <c r="AJT267" s="0"/>
+      <c r="AJU267" s="0"/>
+      <c r="AJV267" s="0"/>
+      <c r="AJW267" s="0"/>
+      <c r="AJX267" s="0"/>
+      <c r="AJY267" s="0"/>
+      <c r="AJZ267" s="0"/>
+      <c r="AKA267" s="0"/>
+      <c r="AKB267" s="0"/>
+      <c r="AKC267" s="0"/>
+      <c r="AKD267" s="0"/>
+      <c r="AKE267" s="0"/>
+      <c r="AKF267" s="0"/>
+      <c r="AKG267" s="0"/>
+      <c r="AKH267" s="0"/>
+      <c r="AKI267" s="0"/>
+      <c r="AKJ267" s="0"/>
+      <c r="AKK267" s="0"/>
+      <c r="AKL267" s="0"/>
+      <c r="AKM267" s="0"/>
+      <c r="AKN267" s="0"/>
+      <c r="AKO267" s="0"/>
+      <c r="AKP267" s="0"/>
+      <c r="AKQ267" s="0"/>
+      <c r="AKR267" s="0"/>
+      <c r="AKS267" s="0"/>
+      <c r="AKT267" s="0"/>
+      <c r="AKU267" s="0"/>
+      <c r="AKV267" s="0"/>
+      <c r="AKW267" s="0"/>
+      <c r="AKX267" s="0"/>
+      <c r="AKY267" s="0"/>
+      <c r="AKZ267" s="0"/>
+      <c r="ALA267" s="0"/>
+      <c r="ALB267" s="0"/>
+      <c r="ALC267" s="0"/>
+      <c r="ALD267" s="0"/>
+      <c r="ALE267" s="0"/>
+      <c r="ALF267" s="0"/>
+      <c r="ALG267" s="0"/>
+      <c r="ALH267" s="0"/>
+      <c r="ALI267" s="0"/>
+      <c r="ALJ267" s="0"/>
+      <c r="ALK267" s="0"/>
+      <c r="ALL267" s="0"/>
+      <c r="ALM267" s="0"/>
+      <c r="ALN267" s="0"/>
+      <c r="ALO267" s="0"/>
+      <c r="ALP267" s="0"/>
+      <c r="ALQ267" s="0"/>
+      <c r="ALR267" s="0"/>
+      <c r="ALS267" s="0"/>
+      <c r="ALT267" s="0"/>
+      <c r="ALU267" s="0"/>
+      <c r="ALV267" s="0"/>
+      <c r="ALW267" s="0"/>
+      <c r="ALX267" s="0"/>
+      <c r="ALY267" s="0"/>
+      <c r="ALZ267" s="0"/>
+      <c r="AMA267" s="0"/>
+      <c r="AMB267" s="0"/>
+      <c r="AMC267" s="0"/>
+      <c r="AMD267" s="0"/>
+      <c r="AME267" s="0"/>
+      <c r="AMF267" s="0"/>
+      <c r="AMG267" s="0"/>
+      <c r="AMH267" s="0"/>
+      <c r="AMI267" s="0"/>
+      <c r="AMJ267" s="0"/>
+    </row>
+    <row r="268" s="8" customFormat="true" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="B268" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D268" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E268" s="3" t="s">
-        <v>69</v>
+      <c r="B268" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="C268" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="D268" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="E268" s="8" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5875,16 +6922,16 @@
         <v>538</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>71</v>
+        <v>53</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>594</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>72</v>
+        <v>595</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5892,16 +6939,16 @@
         <v>538</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5909,16 +6956,16 @@
         <v>538</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5926,14 +6973,16 @@
         <v>538</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D272" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E272" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5941,14 +6990,16 @@
         <v>538</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D273" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E273" s="3" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5956,18 +7007,46 @@
         <v>538</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D274" s="4"/>
       <c r="E274" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A275" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D275" s="4"/>
+      <c r="E275" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A276" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D276" s="4"/>
+      <c r="E276" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
